--- a/data/trans_orig/IP25B01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25B01_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6480CA0A-7920-45CC-8525-9113397911E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A462C01-A050-4287-B6EB-185DED069C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7FC77BE-B21F-4610-9642-A7B2688D3580}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2674F495-3136-43EA-95CE-D91F4B1F9B57}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -107,109 +107,109 @@
     <t>10,84%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>40,81%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -218,325 +218,325 @@
     <t>11,03%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>37,18%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670D324-2325-4B37-9630-3ECD63986692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB72997-7716-4301-A5E2-025CAEBE2543}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1866,13 +1866,13 @@
         <v>14953</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1887,13 @@
         <v>22045</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -1902,13 +1902,13 @@
         <v>15560</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -1917,13 +1917,13 @@
         <v>37605</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1938,13 @@
         <v>63608</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -1953,13 +1953,13 @@
         <v>58217</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -1968,13 +1968,13 @@
         <v>121825</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1989,13 @@
         <v>79905</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -2004,13 +2004,13 @@
         <v>67250</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>228</v>
@@ -2019,13 +2019,13 @@
         <v>147155</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2093,13 @@
         <v>67397</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -2108,13 +2108,13 @@
         <v>50848</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -2123,7 +2123,7 @@
         <v>118246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>138</v>

--- a/data/trans_orig/IP25B01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25B01_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A462C01-A050-4287-B6EB-185DED069C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06AFE6C-1314-45F1-AC47-D94EF8D5BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2674F495-3136-43EA-95CE-D91F4B1F9B57}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{5D7F21D8-3AE4-493C-9EC8-A2912BBBE3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos entre semana / solo 2023 en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,478 +65,457 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>39,77%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -951,8 +930,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB72997-7716-4301-A5E2-025CAEBE2543}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61B3D7B-4C16-4761-AF38-679AD68AEDB0}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1069,194 +1048,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2328</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6611</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>8939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>15244</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>22395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18048</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>24638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>42686</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16664</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>23026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>39689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,253 +1252,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>52283</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>61426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>113709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>6310</v>
+        <v>58746</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>2390</v>
+        <v>63682</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>8700</v>
+        <v>122428</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>6553</v>
+        <v>61096</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>13310</v>
+        <v>75905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="N10" s="7">
-        <v>19863</v>
+        <v>137002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>23752</v>
+        <v>172134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="I11" s="7">
-        <v>19531</v>
+        <v>201837</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>43284</v>
+        <v>373970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>21583</v>
+        <v>158375</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I12" s="7">
-        <v>13533</v>
+        <v>170708</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
+        <v>497</v>
       </c>
       <c r="N12" s="7">
-        <v>35116</v>
+        <v>329083</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,255 +1509,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>628</v>
       </c>
       <c r="D13" s="7">
-        <v>58197</v>
+        <v>450351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>651</v>
       </c>
       <c r="I13" s="7">
-        <v>48764</v>
+        <v>512132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>1279</v>
       </c>
       <c r="N13" s="7">
-        <v>106962</v>
+        <v>962483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>53850</v>
+        <v>7617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>40743</v>
+        <v>7570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
+        <v>19</v>
+      </c>
+      <c r="N14" s="7">
+        <v>15186</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="7">
-        <v>94593</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>73426</v>
+        <v>15501</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7">
-        <v>64267</v>
+        <v>22961</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="N15" s="7">
-        <v>137693</v>
+        <v>38462</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>198225</v>
+        <v>56367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7">
-        <v>175031</v>
+        <v>67355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="N16" s="7">
-        <v>373256</v>
+        <v>123722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>162769</v>
+        <v>67458</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="I17" s="7">
-        <v>159674</v>
+        <v>83617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>497</v>
+        <v>228</v>
       </c>
       <c r="N17" s="7">
-        <v>322442</v>
+        <v>151075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,255 +1766,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>651</v>
+        <v>225</v>
       </c>
       <c r="D18" s="7">
-        <v>488269</v>
+        <v>146943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>439714</v>
+        <v>181502</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1279</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>927983</v>
+        <v>328445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>7238</v>
+        <v>68690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>7715</v>
+        <v>77863</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="N19" s="7">
-        <v>14953</v>
+        <v>146553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D20" s="7">
-        <v>22045</v>
+        <v>91842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I20" s="7">
-        <v>15560</v>
+        <v>106017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="N20" s="7">
-        <v>37605</v>
+        <v>197859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="D21" s="7">
-        <v>63608</v>
+        <v>246548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="I21" s="7">
-        <v>58217</v>
+        <v>293829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>165</v>
+        <v>729</v>
       </c>
       <c r="N21" s="7">
-        <v>121825</v>
+        <v>540378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>371</v>
       </c>
       <c r="D22" s="7">
-        <v>79905</v>
+        <v>242497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>109</v>
+        <v>405</v>
       </c>
       <c r="I22" s="7">
-        <v>67250</v>
+        <v>277350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="M22" s="7">
-        <v>228</v>
+        <v>776</v>
       </c>
       <c r="N22" s="7">
-        <v>147155</v>
+        <v>519847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,318 +2023,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>235</v>
+        <v>918</v>
       </c>
       <c r="D23" s="7">
-        <v>172796</v>
+        <v>649577</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>225</v>
+        <v>968</v>
       </c>
       <c r="I23" s="7">
-        <v>148742</v>
+        <v>755060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>460</v>
+        <v>1886</v>
       </c>
       <c r="N23" s="7">
-        <v>321538</v>
+        <v>1404638</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>67</v>
-      </c>
-      <c r="D24" s="7">
-        <v>67397</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="7">
-        <v>61</v>
-      </c>
-      <c r="I24" s="7">
-        <v>50848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" s="7">
-        <v>128</v>
-      </c>
-      <c r="N24" s="7">
-        <v>118246</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>132</v>
-      </c>
-      <c r="D25" s="7">
-        <v>102024</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="7">
-        <v>121</v>
-      </c>
-      <c r="I25" s="7">
-        <v>93136</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="7">
-        <v>253</v>
-      </c>
-      <c r="N25" s="7">
-        <v>195160</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>364</v>
-      </c>
-      <c r="D26" s="7">
-        <v>285585</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="7">
-        <v>366</v>
-      </c>
-      <c r="I26" s="7">
-        <v>253951</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="7">
-        <v>730</v>
-      </c>
-      <c r="N26" s="7">
-        <v>539535</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7">
-        <v>405</v>
-      </c>
-      <c r="D27" s="7">
-        <v>264257</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="A24" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="7">
-        <v>371</v>
-      </c>
-      <c r="I27" s="7">
-        <v>240456</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M27" s="7">
-        <v>776</v>
-      </c>
-      <c r="N27" s="7">
-        <v>504713</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>968</v>
-      </c>
-      <c r="D28" s="7">
-        <v>719263</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7">
-        <v>919</v>
-      </c>
-      <c r="I28" s="7">
-        <v>638391</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1357654</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
